--- a/biology/Médecine/Raymond_Vieussens/Raymond_Vieussens.xlsx
+++ b/biology/Médecine/Raymond_Vieussens/Raymond_Vieussens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raymond Vieussens (ou Raimond Vieussens, ou Raymond de Viessens, selon les sources), né vers 1641 au Vigan (Lot) et mort le 16 août 1715 à Montpellier[1], est un médecin et anatomiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond Vieussens (ou Raimond Vieussens, ou Raymond de Viessens, selon les sources), né vers 1641 au Vigan (Lot) et mort le 16 août 1715 à Montpellier, est un médecin et anatomiste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né au Vigan dans le Rouergue, il étudie la médecine à l'université de Montpellier où il est diplômé en 1670.Il se rend ensuite à Paris où il est nommé médecin de la Grande Mademoiselle, puis va se fixer à Montpellier où il devient médecin, en 1671, de l'hôpital Saint-Éloi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né au Vigan dans le Rouergue, il étudie la médecine à l'université de Montpellier où il est diplômé en 1670.Il se rend ensuite à Paris où il est nommé médecin de la Grande Mademoiselle, puis va se fixer à Montpellier où il devient médecin, en 1671, de l'hôpital Saint-Éloi.
 Son travail est principalement orienté vers l'étude du cerveau et du système nerveux, s'intéressant également à la physiologie et à l'anatomie du cœur. Il donne ainsi des descriptions précises des symptômes du rétrécissement mitral et de l'insuffisance aortique. Considéré comme anatomiste de talent, il réalisa des centaines d'analyses nécropsiques.
 Médecin-conseiller ordinaire de Louis XIV, il est nommé membre de l'Académie royale des sciences en France et membre de l'académie royale de Londres.
 </t>
@@ -544,12 +558,14 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un certain nombre de structures anatomiques portent son nom :
 le centre ovale de Vieussens, située dans le cerveau ;
 la valve de Vieussens ou voile médullaire supérieure ;
-l'anneau de Vieussens : « relief musculaire existant autour de la fosse ovale sur la cloison des oreillettes »[3] ;
+l'anneau de Vieussens : « relief musculaire existant autour de la fosse ovale sur la cloison des oreillettes » ;
 le ventricule de Vieussens ou cavité septale ;
 l'anse de Vieussens ou anse sub-clavière ;
 le ganglion de Vieussens ou ganglion cœliaque ;
@@ -582,7 +598,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) Raymundi Vieussens doctoris medici Monspeliensis Nevrographia universalis. Hoc est, omnium corporis humani nervorum, simul &amp; cerebri, medullæque spinalis descriptio anatomica; Eaque integra et accurata, variis Iconibus fideliter &amp; ad vivum delineatis, æréque incisis illustrata: Cum ipsorum actione et usu, Physico discursu explicatis. [Editio nova], Lugduni, Apud Joannem Certe, in vico Mercatorio, sub signo Trinitatis, 1684, Texte intégral.
 (la) Neurographia universalis,1684, Texte intégral.
@@ -590,7 +608,7 @@
 (la) Epistola de sanguinis humani, 1698.
 Deux dissertations, 1698.
 Réponse du Sr Vieussens docteur en médecine de la faculté de Montpellier, a trois lettres imprimées du Sieur Chirac Professeur de medecine de l'université de la même ville, A Montpellier, chez Honoré Pech, 1698, Texte intégral.
-(la) Novum vasorum corporis humani systema, 1705, [consiréré comme l'un des premiers classiques de la cardiologie][4].
+(la) Novum vasorum corporis humani systema, 1705, [consiréré comme l'un des premiers classiques de la cardiologie].
 (la) Dissertatio anatomica de structura et usu uteri ac placentae muliebris, 1712.
 Traité nouveau de la structure de l'oreille, A Toulouse, chez Jean Guillemette, Imprimeur &amp; Libraire Juré de l'Université, ruë de la Porterie, à la Pallas, 1714, Texte intégral.
 Traité nouveau des liqueurs du corps humain, 1715.
